--- a/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionDSPPowerReport.xlsx
+++ b/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionDSPPowerReport.xlsx
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>3.3625552896410227E-4</v>
+        <v>3.350118058733642E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>1.769762166077271E-4</v>
+        <v>1.8559227464720607E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,12 +219,12 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>5.15384578704834</v>
+        <v>5.230769157409668</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>1.5927931235637516E-4</v>
+        <v>1.4941954577807337E-4</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>14</v>
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>5.316567897796631</v>
+        <v>5.053255081176758</v>
       </c>
     </row>
   </sheetData>
